--- a/Results_and_analysis/Displacement_sequences_analysis/results_of_analysis/results_analysis_complete_displacement.xlsx
+++ b/Results_and_analysis/Displacement_sequences_analysis/results_of_analysis/results_analysis_complete_displacement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plocha\Bachelor_thesis\Results_and_analysis\Displacement_sequences_analysis\results_of_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plocha\Bachelor_thesis\Python_scripts\Results_and_analysis\Displacement_sequences_analysis\results_of_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F15CBC-35F9-4AA7-8526-19E9CDAFDA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F740F0-4E49-407E-A0B0-907517D12379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C618214B-5276-44ED-A61B-679BEDE7B563}"/>
   </bookViews>
@@ -139,62 +139,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="cs-CZ"/>
-              <a:t>ALL COEFFICIENTS</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -204,7 +149,7 @@
           <c:x val="7.7231167785642221E-2"/>
           <c:y val="5.6567442166026771E-2"/>
           <c:w val="0.82283850132406666"/>
-          <c:h val="0.92462383375412416"/>
+          <c:h val="0.83836791513709552"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -213,6 +158,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>C1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1430,6 +1378,79 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="cs-CZ" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Procentuální velikost posunutí [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39148378643340481"/>
+              <c:y val="0.90534553719256983"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr lang="cs-CZ" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1493,6 +1514,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1200" b="1"/>
+                  <a:t>Hodnoty</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1200" b="1" baseline="0"/>
+                  <a:t> efektivních elastických koeficientů [Pa]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.6364471069038083E-2"/>
+              <c:y val="0.32247233890921029"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5155,8 +5244,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>535391</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>13419</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>139560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5559,8 +5648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D6D5E7-4A97-4029-B2C7-0F8C35868D21}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC36" sqref="AC36"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="91" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Results_and_analysis/Displacement_sequences_analysis/results_of_analysis/results_analysis_complete_displacement.xlsx
+++ b/Results_and_analysis/Displacement_sequences_analysis/results_of_analysis/results_analysis_complete_displacement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Plocha\Bachelor_thesis\Python_scripts\Results_and_analysis\Displacement_sequences_analysis\results_of_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F740F0-4E49-407E-A0B0-907517D12379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24019AF1-09C5-4B3A-9A13-57CF4485D74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{C618214B-5276-44ED-A61B-679BEDE7B563}"/>
   </bookViews>
@@ -34,42 +34,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Displacement</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>C1111</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>C2211</t>
   </si>
   <si>
-    <t>C3</t>
+    <t>C1211</t>
   </si>
   <si>
-    <t>C4</t>
+    <t>C1122</t>
   </si>
   <si>
-    <t>C5</t>
+    <t>C2222</t>
   </si>
   <si>
-    <t>C6</t>
+    <t>C1222</t>
   </si>
   <si>
-    <t>C7</t>
+    <t>C1112</t>
   </si>
   <si>
-    <t>C8</t>
+    <t>C2212</t>
   </si>
   <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>TENSOR IN THE FORM:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C= </t>
+    <t>C1212</t>
   </si>
 </sst>
 </file>
@@ -86,15 +80,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -102,12 +102,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -139,7 +267,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>ALL COEFFICIENTS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -159,7 +342,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>C1</c:v>
+            <c:strRef>
+              <c:f>List1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1111</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -286,7 +477,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>C2</c:v>
+            <c:strRef>
+              <c:f>List1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -413,7 +612,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>C3</c:v>
+            <c:strRef>
+              <c:f>List1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -540,7 +747,15 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>C4</c:v>
+            <c:strRef>
+              <c:f>List1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1122</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -667,7 +882,15 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>C5</c:v>
+            <c:strRef>
+              <c:f>List1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -822,7 +1045,15 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>C6</c:v>
+            <c:strRef>
+              <c:f>List1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -949,7 +1180,15 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>C7</c:v>
+            <c:strRef>
+              <c:f>List1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1112</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1082,7 +1321,15 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>C8</c:v>
+            <c:strRef>
+              <c:f>List1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1215,7 +1462,15 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>C9</c:v>
+            <c:strRef>
+              <c:f>List1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1800,7 +2055,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>C2</c:v>
+            <c:strRef>
+              <c:f>List1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1927,7 +2190,15 @@
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>C3</c:v>
+            <c:strRef>
+              <c:f>List1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1211</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2054,7 +2325,15 @@
           <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>C4</c:v>
+            <c:strRef>
+              <c:f>List1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1122</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2181,7 +2460,15 @@
           <c:idx val="5"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>C6</c:v>
+            <c:strRef>
+              <c:f>List1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2308,7 +2595,15 @@
           <c:idx val="6"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>C7</c:v>
+            <c:strRef>
+              <c:f>List1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1112</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2441,7 +2736,15 @@
           <c:idx val="7"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>C8</c:v>
+            <c:strRef>
+              <c:f>List1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2605,6 +2908,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Posun</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2699,6 +3027,38 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Hodnoty efektivních elastických koeficientů [Pa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout>
             <c:manualLayout>
               <c:xMode val="edge"/>
@@ -2956,7 +3316,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>C1</c:v>
+            <c:strRef>
+              <c:f>List1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1111</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3083,7 +3451,15 @@
           <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>C5</c:v>
+            <c:strRef>
+              <c:f>List1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2222</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3238,7 +3614,15 @@
           <c:idx val="8"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>C9</c:v>
+            <c:strRef>
+              <c:f>List1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1212</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3401,6 +3785,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Posun</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3432,6 +3871,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Hodnoty efektivních elastických koeficientů [Pa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5236,16 +5737,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>756444</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>738301</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>535391</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>139560</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>135344</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>117928</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5273,15 +5774,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>99119</xdr:rowOff>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>340228</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>104273</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400417</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>86129</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5311,15 +5812,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>244929</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>149516</xdr:rowOff>
+      <xdr:rowOff>11217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>743858</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>75202</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>798286</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5646,10 +6147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D6D5E7-4A97-4029-B2C7-0F8C35868D21}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="91" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5657,456 +6158,451 @@
     <col min="3" max="11" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>-0.11</v>
       </c>
-      <c r="C2">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8">
         <v>7845.9923363811004</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>727.541656799733</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <v>-140.40668235552801</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <v>698.63338748405602</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <v>9802.7969500791896</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="8">
         <v>264.07765349159502</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="8">
         <v>407.89272227985998</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="8">
         <v>671.61229741739805</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="8">
         <v>3233.1966151310899</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>-0.09</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8">
         <v>7183.4318764315603</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>683.54293945421296</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <v>-72.5938355413343</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="8">
         <v>602.12175906098605</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>8976.4355810066299</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="8">
         <v>235.25114102204299</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="8">
         <v>297.87939725056799</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="8">
         <v>539.96207597781199</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="8">
         <v>3096.9609854676</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
         <v>6555.6007722136701</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>630.53228723572101</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>-11.7023255135423</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <v>552.23351490737195</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="8">
         <v>8274.67870504237</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="8">
         <v>226.23511541508799</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="8">
         <v>198.00275278955399</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="8">
         <v>413.71740952663203</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="8">
         <v>2970.4578566892901</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>-0.05</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8">
         <v>5863.3759892500202</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>555.03426199075102</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="8">
         <v>48.2609748536429</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="8">
         <v>511.562925321043</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="8">
         <v>7493.56404181375</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="8">
         <v>231.567342935585</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="8">
         <v>124.00891387204101</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="8">
         <v>321.993635123481</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="8">
         <v>2862.8841281965201</v>
       </c>
-      <c r="Q5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>-0.03</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8">
         <v>5452.1047802717303</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>492.05230559932801</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>64.997872199611095</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>492.632627931196</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="8">
         <v>6940.7169809958696</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="8">
         <v>251.755308002047</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="8">
         <v>64.531623836005394</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="8">
         <v>251.835999570848</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="8">
         <v>2761.8080268354302</v>
       </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>-0.01</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
         <v>5452.1047802717303</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>492.05230559933199</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="8">
         <v>64.997872199613099</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="8">
         <v>492.73383070030002</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="8">
         <v>6939.9037066359297</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="8">
         <v>251.95879764884901</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="8">
         <v>64.531623836007896</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="8">
         <v>251.835999570848</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="8">
         <v>2761.8080268354202</v>
       </c>
-      <c r="Q7" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>0.01</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8">
         <v>5452.1047802717303</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>492.05230559933199</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <v>64.997872199613099</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <v>492.73383070030002</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="8">
         <v>6939.9037066359297</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="8">
         <v>251.95879764884901</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="8">
         <v>64.531623836007896</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="8">
         <v>251.835999570848</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="8">
         <v>2761.8080268354202</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>0.03</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8">
         <v>5452.1047802717303</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>492.05230559932801</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
         <v>64.997872199611095</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="8">
         <v>492.73383070030701</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="8">
         <v>6939.9037066359597</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="8">
         <v>251.95879764885001</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="8">
         <v>64.531623836005394</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="8">
         <v>251.835999570848</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="8">
         <v>2761.8080268354302</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>0.05</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8">
         <v>5452.1047802717303</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>492.05230559932698</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <v>64.997872199613596</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="8">
         <v>492.73383070030201</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="8">
         <v>6939.9037066359397</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="8">
         <v>251.958797648852</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="8">
         <v>-47.358684786626696</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="8">
         <v>216.992408313011</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="8">
         <v>2844.1099435864098</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8">
         <v>5453.52893302754</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>492.486667332026</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <v>63.565643845857899</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="8">
         <v>492.73383070030002</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="8">
         <v>6939.9037066359397</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="8">
         <v>251.95879764884901</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="8">
         <v>-227.55864971884799</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="8">
         <v>163.95344270940299</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="8">
         <v>2969.7971892926498</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>0.09</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8">
         <v>5459.2765365262703</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>494.23966679388099</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <v>57.785448804693203</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="8">
         <v>480.902664034427</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="8">
         <v>6947.1859512731999</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="8">
         <v>253.80071662942501</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="8">
         <v>-381.37656844499298</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="8">
         <v>87.542860921457503</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="8">
         <v>3103.2487907353502</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
         <v>0.11</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="3"/>
+      <c r="C13" s="9">
         <v>5465.1713647616298</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>492.23022631760801</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <v>51.446576472370502</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <v>472.30744710303298</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="9">
         <v>6952.4784327544903</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="9">
         <v>255.13678898386601</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="9">
         <v>-514.30285315255605</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="9">
         <v>-25.9749549422942</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="9">
         <v>3238.6310922278799</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
